--- a/data/years.xlsx
+++ b/data/years.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ihzhang/Documents/GitHub/Municipal-Boundary-Changes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBBED189-5264-2F4C-800B-B72E09AC8724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC454D22-E631-1B40-BEEC-21D934A644A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16580" xr2:uid="{5105A8C9-F30D-664E-AFC7-6B8AA99D9086}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>ACS 5-Year Period</t>
   </si>
@@ -101,9 +101,6 @@
     <t>ACS Years Used</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>2011-2015 ACS</t>
   </si>
   <si>
@@ -129,13 +126,22 @@
   </si>
   <si>
     <t>2016-2020 as 2020</t>
+  </si>
+  <si>
+    <t>Baseline year (interpolated)</t>
+  </si>
+  <si>
+    <t>NA; 2000 Census</t>
+  </si>
+  <si>
+    <t>interpolated 2014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,6 +172,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -187,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -195,14 +209,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C87CC6B-A4B8-A84E-87BB-AF4F4CA66859}">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,25 +558,25 @@
       <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
     </row>
     <row r="2" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -723,8 +742,8 @@
       </c>
     </row>
     <row r="9" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C9" s="7" t="s">
-        <v>29</v>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D9" s="3">
         <v>2014</v>
@@ -869,42 +888,42 @@
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
       </c>
-      <c r="D21" t="s">
-        <v>21</v>
+      <c r="D21" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
+      <c r="A22" s="5"/>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
@@ -915,7 +934,7 @@
       <c r="E22" s="1">
         <v>2006</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="9">
         <v>2007</v>
       </c>
       <c r="G22" s="1">
@@ -926,11 +945,11 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>27</v>
+      <c r="A24" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
@@ -941,7 +960,7 @@
       <c r="E24" s="1">
         <v>2006</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="10">
         <v>2007</v>
       </c>
       <c r="G24" s="1">
@@ -952,12 +971,12 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
+      <c r="A25" s="5"/>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J25" s="4">
         <v>2011</v>
@@ -965,7 +984,7 @@
       <c r="K25" s="4">
         <v>2012</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="11">
         <v>2013</v>
       </c>
       <c r="M25" s="4">
@@ -976,14 +995,14 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>25</v>
+      <c r="A27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27">
         <v>2008</v>
@@ -1001,11 +1020,14 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="8"/>
+    <row r="28" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="7"/>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="N28">
         <v>2015</v>
@@ -1025,10 +1047,10 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O29">
         <v>2016</v>

--- a/data/years.xlsx
+++ b/data/years.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ihzhang/Documents/GitHub/Municipal-Boundary-Changes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC454D22-E631-1B40-BEEC-21D934A644A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF4B2BE-7406-884C-82EF-3DDF38A369A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16580" xr2:uid="{5105A8C9-F30D-664E-AFC7-6B8AA99D9086}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" xr2:uid="{5105A8C9-F30D-664E-AFC7-6B8AA99D9086}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,14 +172,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="5" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,27 +193,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,7 +527,7 @@
   <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,25 +570,24 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>2007</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>2005</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>2006</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>2007</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>2008</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>2009</v>
       </c>
-      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
@@ -609,20 +596,19 @@
       <c r="D3">
         <v>2008</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>2006</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>2007</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>2008</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>2009</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>2010</v>
       </c>
     </row>
@@ -722,30 +708,30 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>2013</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8">
         <v>2011</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8">
         <v>2012</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8">
         <v>2013</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8">
         <v>2014</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8">
         <v>2015</v>
       </c>
     </row>
     <row r="9" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>2014</v>
       </c>
       <c r="L9">
@@ -837,22 +823,22 @@
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>2020</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13">
         <v>2016</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13">
         <v>2017</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13">
         <v>2018</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13">
         <v>2019</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13">
         <v>2020</v>
       </c>
     </row>
@@ -860,7 +846,7 @@
       <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="Q14">
@@ -916,7 +902,7 @@
       <c r="C21" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -928,19 +914,19 @@
       <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>2005</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>2006</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22">
         <v>2007</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22">
         <v>2008</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22">
         <v>2009</v>
       </c>
     </row>
@@ -954,19 +940,19 @@
       <c r="C24" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>2005</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>2006</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="2">
         <v>2007</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24">
         <v>2008</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24">
         <v>2009</v>
       </c>
     </row>
@@ -978,19 +964,19 @@
       <c r="C25" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25">
         <v>2011</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25">
         <v>2012</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="2">
         <v>2013</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25">
         <v>2014</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25">
         <v>2015</v>
       </c>
     </row>
@@ -998,7 +984,7 @@
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C27" t="s">
@@ -1010,7 +996,7 @@
       <c r="H27">
         <v>2009</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <v>2010</v>
       </c>
       <c r="J27">
@@ -1022,11 +1008,11 @@
     </row>
     <row r="28" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="7"/>
+      <c r="B28" s="6"/>
       <c r="C28" t="s">
         <v>23</v>
       </c>
-      <c r="M28" s="8" t="s">
+      <c r="M28" s="4" t="s">
         <v>32</v>
       </c>
       <c r="N28">
@@ -1035,7 +1021,7 @@
       <c r="O28">
         <v>2016</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="7">
         <v>2017</v>
       </c>
       <c r="Q28">
@@ -1046,6 +1032,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -1064,7 +1051,7 @@
       <c r="R29">
         <v>2019</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="2">
         <v>2020</v>
       </c>
     </row>
@@ -1072,12 +1059,13 @@
   <mergeCells count="6">
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A27:A28"/>
     <mergeCell ref="D20:R20"/>
     <mergeCell ref="E1:U1"/>
     <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>